--- a/BOM/Melbourne/Stats/MCD_AUG21_IDCJDW3049.202108.xlsx
+++ b/BOM/Melbourne/Stats/MCD_AUG21_IDCJDW3049.202108.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevTools\cosc3000-main\BOM\Melbourne\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevTools\cosc3000-main\BOM\Melbourne\Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{15CEEBD5-8180-4878-AD58-396893D4A035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE683C-F349-4BB9-8885-5408C13A2067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="1215" windowWidth="21600" windowHeight="16575"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDCJDW3049.202108" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -148,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -675,7 +687,1718 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="171">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -984,11 +2707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7:R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,6 +4907,72 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C7:C37">
+    <cfRule type="cellIs" dxfId="34" priority="18" operator="greaterThan">
+      <formula>$C$41</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+      <formula>$C$39</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+      <formula>$C$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D37">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="greaterThan">
+      <formula>$D$41</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="equal">
+      <formula>$D$39</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+      <formula>$D$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:K37">
+    <cfRule type="cellIs" dxfId="28" priority="12" operator="greaterThan">
+      <formula>$K$41</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
+      <formula>$K$39</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="10" operator="equal">
+      <formula>$K$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:L37">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+      <formula>$L$39</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="greaterThan">
+      <formula>$L$41</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+      <formula>$L$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7:Q37">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="greaterThan">
+      <formula>$Q$41</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+      <formula>$Q$39</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+      <formula>$Q$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7:R37">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>$R$41</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>$R$39</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$R$40</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>